--- a/MiNES2025/MiNES2025SAAG.xlsx
+++ b/MiNES2025/MiNES2025SAAG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Events, Programming, and Sales\MiNES\2025\SAAG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdemmler\Desktop\MiNES2025 SAAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF63C6CD-559F-4DA8-B6D0-B285832EFD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22386D-A1E0-443D-9D20-B149C4CFCF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{52618A2D-00DE-4CB5-A21B-74CD038D6EAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52618A2D-00DE-4CB5-A21B-74CD038D6EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
+  <si>
+    <t>MiNES 2025 Preliminary Schedule at a Glance</t>
+  </si>
+  <si>
+    <t>Updated:</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Event/Function</t>
+  </si>
+  <si>
     <t>Time Start</t>
   </si>
   <si>
@@ -56,124 +65,103 @@
     <t>Event Type</t>
   </si>
   <si>
+    <t>Sunday, December 7</t>
+  </si>
+  <si>
     <t>Registration</t>
   </si>
   <si>
+    <t xml:space="preserve">The registration desk will be located in the Lakeside Foyer on the 3rd Floor at the following times (subject to change):                                                                                                                                                                                                                                                                                       Sunday, December 7, 3:00 PM - 6:00 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     Monday, December 8, 7:00 AM - 5:00 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                Tueday, December 9, 7:30 AM - 6:40 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                   Wednesday, December 10, 7:30 AM - 12:30 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                Thursday, December 11, 7:30 AM - 3:50 PM                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>3rd Floor Lakeside Foyer</t>
+  </si>
+  <si>
     <t>Welcome Reception</t>
   </si>
   <si>
+    <t>Please join us for the Welcome Reception on Sunday, December 7, from 5:00 p.m. to 6:00 p.m. in Hope Ballroom C. This event is an excellent opportunity to mingle with fellow attendees, and kickstart MiNES 2025 in a celebratory atmosphere. Don’t miss out on this special event filled with networking, camaraderie, and excitement as we come together to embark on a memorable journey of knowledge exchange and collaboration.</t>
+  </si>
+  <si>
+    <t>Hope Ballroom C?</t>
+  </si>
+  <si>
+    <t>Networking and Social Functions</t>
+  </si>
+  <si>
+    <t>Monday, December 8</t>
+  </si>
+  <si>
+    <t>Plenary Session</t>
+  </si>
+  <si>
+    <t>Florie Knauf, U.S Department of Energy (DOE)</t>
+  </si>
+  <si>
+    <t>Hope Ballroom D</t>
+  </si>
+  <si>
+    <t>Technical Program</t>
+  </si>
+  <si>
+    <t>Break &amp; Exhibition</t>
+  </si>
+  <si>
+    <t>Hope Ballroom E</t>
+  </si>
+  <si>
+    <t>All Conference Activities</t>
+  </si>
+  <si>
+    <t>Early Career Panel</t>
+  </si>
+  <si>
+    <t>Details to be announced.  Open to all registrants.</t>
+  </si>
+  <si>
+    <t>Hope Ballroom A&amp;B</t>
+  </si>
+  <si>
+    <t>Other (Workshop/Course etc…)</t>
+  </si>
+  <si>
+    <t>Navigating International Relationships Panel</t>
+  </si>
+  <si>
+    <t>Center Street B&amp;C</t>
+  </si>
+  <si>
+    <t>AI/ML Workshop</t>
+  </si>
+  <si>
     <t>Lunch (on your own)</t>
   </si>
   <si>
-    <t>Updated:</t>
-  </si>
-  <si>
-    <t>MiNES 2025 Preliminary Schedule at a Glance</t>
-  </si>
-  <si>
-    <t>Event/Function</t>
-  </si>
-  <si>
-    <t>Sunday, December 7</t>
-  </si>
-  <si>
-    <t>Monday, December 8</t>
+    <t>Please see the lunch options available in the MiNES 2025 Conference Guide and mobile app</t>
+  </si>
+  <si>
+    <t>(on your own)</t>
+  </si>
+  <si>
+    <t>Technical Program Sessions</t>
+  </si>
+  <si>
+    <t>Details to be announced.</t>
+  </si>
+  <si>
+    <t>Hope Ballrom A&amp;B; Center Street A; Center Street B&amp;C; Center Street C</t>
+  </si>
+  <si>
+    <t>Nuclear Materials Committee Meeting</t>
+  </si>
+  <si>
+    <t>TMS Nuclear Materials Committee Meeting.  Open to all registrants.</t>
+  </si>
+  <si>
+    <t>Council/Committee Meetings</t>
   </si>
   <si>
     <t>Tuesday, December 9</t>
-  </si>
-  <si>
-    <t>Wednesday, December 10</t>
-  </si>
-  <si>
-    <t>Thursday, December 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The registration desk will be located in the Lakeside Foyer on the 3rd Floor at the following times (subject to change): </t>
-  </si>
-  <si>
-    <t>3rd Floor Lakeside Foyer</t>
-  </si>
-  <si>
-    <t>Please join us for the Welcome Reception on Sunday, December 7, from 5:00 p.m. to 6:00 p.m. in Hope Ballroom C. This event is an excellent opportunity to mingle with fellow attendees, and kickstart MiNES 2025 in a celebratory atmosphere. Don’t miss out on this special event filled with networking, camaraderie, and excitement as we come together to embark on a memorable journey of knowledge exchange and collaboration.</t>
-  </si>
-  <si>
-    <t>Hope Ballroom C?</t>
-  </si>
-  <si>
-    <t>Plenary Session</t>
-  </si>
-  <si>
-    <t>Florie Knauf, U.S Department of Energy (DOE)</t>
-  </si>
-  <si>
-    <t>Hope Ballroom D</t>
-  </si>
-  <si>
-    <t>Networking and Social Functions</t>
-  </si>
-  <si>
-    <t>Technical Program</t>
-  </si>
-  <si>
-    <t>Break &amp; Exhibition</t>
-  </si>
-  <si>
-    <t>Hope Ballroom E</t>
-  </si>
-  <si>
-    <t>Early Career Panel</t>
-  </si>
-  <si>
-    <t>Hope Ballroom A&amp;B</t>
-  </si>
-  <si>
-    <t>Other (Workshop/Course etc…)</t>
-  </si>
-  <si>
-    <t>Center Street B&amp;C</t>
-  </si>
-  <si>
-    <t>Navigating International Relationships Panel</t>
-  </si>
-  <si>
-    <t>AI/ML Workshop</t>
-  </si>
-  <si>
-    <t>Details to be announced.  Open to all registrants.</t>
-  </si>
-  <si>
-    <t>Please see the lunch options available in the MiNES 2025 Conference Guide and mobile app</t>
-  </si>
-  <si>
-    <t>(on your own)</t>
-  </si>
-  <si>
-    <t>Technical Program Sessions</t>
-  </si>
-  <si>
-    <t>Details to be announced.</t>
-  </si>
-  <si>
-    <t>Hope Ballrom A&amp;B; Center Street A; Center Street B&amp;C; Center Street C</t>
-  </si>
-  <si>
-    <t>Nuclear Materials Committee Meeting</t>
-  </si>
-  <si>
-    <t>TMS Nuclear Materials Committee Meeting.  Open to all registrants.</t>
-  </si>
-  <si>
-    <t>Council/Committee Meetings</t>
-  </si>
-  <si>
-    <t>All Conference Activities; Exhbition Activities</t>
-  </si>
-  <si>
-    <t>All Conference Activities</t>
-  </si>
-  <si>
-    <t>Technical Program; Networking and Social Functions</t>
   </si>
   <si>
     <t>Poster Session &amp; Reception</t>
@@ -183,7 +171,10 @@
 research and innovations in the field. Don’t miss this fantastic opportunity to engage with peers, exchange insights, and gain inspiration during this vibrant and interactive event.</t>
   </si>
   <si>
-    <t xml:space="preserve">The registration desk will be located in the Lakeside Foyer on the 3rd Floor at the following times (subject to change):                                                                                                                                                                                                                                                                                       Sunday, December 7, 3:00 PM - 6:00 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     Monday, December 8, 7:00 AM - 5:00 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                Tueday, December 9, 7:30 AM - 6:40 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                   Wednesday, December 10, 7:30 AM - 12:30 PM                                                                                                                                                                                                                                                                                                                                                                                                                                                Thursday, December 11, 7:30 AM - 3:50 PM                                                                                                                                                                                                                                                                                                                                                  </t>
+    <t>Wednesday, December 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The registration desk will be located in the Lakeside Foyer on the 3rd Floor at the following times (subject to change): </t>
   </si>
   <si>
     <t>Social Event: Rock &amp; Roll Hall of Fame</t>
@@ -192,15 +183,15 @@
     <t>~2:00 PM</t>
   </si>
   <si>
+    <t>~5:00 PM</t>
+  </si>
+  <si>
     <t>Join us for a special Wednesday afternoon optional, social event to the Rock &amp; Roll Hall of Fame—tickets limited in quantity, and available on a first-come, first-served basis. Fee includes admission to the museum and transportation.</t>
   </si>
   <si>
     <t>Rock &amp; Roll Hall of Fame</t>
   </si>
   <si>
-    <t>~5:00 PM</t>
-  </si>
-  <si>
     <t>Conference Banquet Reception</t>
   </si>
   <si>
@@ -214,6 +205,17 @@
   </si>
   <si>
     <t>Daniel Clark, Type One Energy Group Inc.</t>
+  </si>
+  <si>
+    <t>Thursday, December 11</t>
+  </si>
+  <si>
+    <t>The registration desk will be located in the Lakeside Foyer on the 3rd Floor at the following times (subject to change):
+• Sunday, December 7, 3:00 PM - 6:00 PM
+• Monday, December 8, 7:00 AM - 5:00 PM
+• Tueday, December 9, 7:30 AM - 6:40 PM
+• Wednesday, December 10, 7:30 AM - 12:30 PM
+• Thursday, December 11, 7:30 AM - 3:50 PM</t>
   </si>
 </sst>
 </file>
@@ -284,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -301,23 +303,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,109 +651,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD5C71B-AE13-429A-956E-23D0EB6F7683}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="64.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="7" max="7" width="29.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6"/>
+    <row r="1" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4">
         <f ca="1">TODAY()</f>
-        <v>45910</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.75</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.75</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>0.29166666666666669</v>
@@ -766,21 +762,21 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>0.33333333333333331</v>
@@ -789,21 +785,21 @@
         <v>0.875</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>0.375</v>
@@ -812,18 +808,18 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>0.39583333333333331</v>
@@ -832,21 +828,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>0.39583333333333331</v>
@@ -855,21 +851,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>0.39583333333333331</v>
@@ -878,21 +874,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>0.47916666666666669</v>
@@ -901,21 +897,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>0.54166666666666663</v>
@@ -924,21 +920,21 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>0.625</v>
@@ -947,18 +943,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>0.71875</v>
@@ -967,21 +963,21 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>0.3125</v>
@@ -990,21 +986,21 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>0.33333333333333331</v>
@@ -1013,21 +1009,21 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>0.41666666666666669</v>
@@ -1036,18 +1032,18 @@
         <v>0.4375</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>0.50694444444444442</v>
@@ -1056,21 +1052,21 @@
         <v>0.5625</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>0.5625</v>
@@ -1079,21 +1075,21 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>0.64583333333333337</v>
@@ -1102,18 +1098,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="2">
         <v>0.73611111111111116</v>
@@ -1122,21 +1118,21 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
         <v>0.3125</v>
@@ -1145,21 +1141,21 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>0.33333333333333331</v>
@@ -1168,21 +1164,21 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>0.41666666666666669</v>
@@ -1191,46 +1187,46 @@
         <v>0.4375</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
         <v>0.52083333333333337</v>
@@ -1239,21 +1235,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>54</v>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="2">
         <v>0.72916666666666663</v>
@@ -1262,18 +1258,18 @@
         <v>0.75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <v>0.75</v>
@@ -1282,18 +1278,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>0.77083333333333337</v>
@@ -1302,21 +1298,21 @@
         <v>0.8125</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
         <v>0.3125</v>
@@ -1325,21 +1321,21 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
         <v>0.33333333333333331</v>
@@ -1348,21 +1344,21 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
         <v>0.41666666666666669</v>
@@ -1371,18 +1367,18 @@
         <v>0.4375</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2">
         <v>0.50694444444444442</v>
@@ -1391,21 +1387,21 @@
         <v>0.5625</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C36" s="2">
         <v>0.5625</v>
@@ -1414,92 +1410,92 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>

--- a/MiNES2025/MiNES2025SAAG.xlsx
+++ b/MiNES2025/MiNES2025SAAG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdemmler\Desktop\MiNES2025 SAAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE602531-9CB4-499F-8966-876BC6EF0CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC5B14-62A6-4CBF-9492-5261C085DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52618A2D-00DE-4CB5-A21B-74CD038D6EAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>MiNES 2025 Preliminary Schedule at a Glance</t>
   </si>
@@ -227,12 +227,39 @@
 • Wednesday, December 10, 7:30 AM - 12:30 PM
 • Thursday, December 11, 7:30 AM - 3:50 PM                                                                                                                                                                                                                                                                                                                                               </t>
   </si>
+  <si>
+    <t>PDF Link</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Session 1</t>
+  </si>
+  <si>
+    <t>www.tms.org</t>
+  </si>
+  <si>
+    <t>Session 1 Description</t>
+  </si>
+  <si>
+    <t>Session 2</t>
+  </si>
+  <si>
+    <t>Session 2 Description</t>
+  </si>
+  <si>
+    <t>Hope Ballrom A&amp;B</t>
+  </si>
+  <si>
+    <t>Center Street A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +300,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,10 +326,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -323,8 +359,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD5C71B-AE13-429A-956E-23D0EB6F7683}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +711,11 @@
     <col min="5" max="5" width="64.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="45.5703125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -687,7 +728,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -709,8 +750,11 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -733,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -756,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -779,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -802,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -822,7 +866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -845,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -868,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -891,7 +935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -914,7 +958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -937,503 +981,541 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C16" s="6">
         <v>0.625</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D16" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C17" s="6">
         <v>0.71875</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D17" s="6">
         <v>0.80208333333333337</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="D18" s="6">
-        <v>0.4375</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>31</v>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.5625</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="6">
-        <v>0.5625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D20" s="6">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>0.4375</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D21" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D24" s="6">
         <v>0.77777777777777779</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="D25" s="6">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>47</v>
+      <c r="B27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.4375</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.75</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="6">
-        <v>0.75</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D30" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D31" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>0.75</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6">
-        <v>0.3125</v>
+        <v>0.75</v>
       </c>
       <c r="D32" s="6">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>57</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D33" s="6">
-        <v>0.50694444444444442</v>
+        <v>0.8125</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>21</v>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="D34" s="6">
-        <v>0.4375</v>
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>31</v>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C35" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D35" s="6">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D35" s="6">
-        <v>0.5625</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C38" s="6">
         <v>0.5625</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D38" s="6">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
@@ -1506,13 +1588,25 @@
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H14" r:id="rId1" xr:uid="{42D971BF-0BB6-465E-9226-1BFA83933D49}"/>
+    <hyperlink ref="H15" r:id="rId2" xr:uid="{026693EF-055B-4C9C-8A23-E2006350B64D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>